--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H2">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N2">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q2">
-        <v>3.007718422958</v>
+        <v>10.14592617908833</v>
       </c>
       <c r="R2">
-        <v>27.069465806622</v>
+        <v>91.31333561179498</v>
       </c>
       <c r="S2">
-        <v>0.008749120042588591</v>
+        <v>0.01663166009058391</v>
       </c>
       <c r="T2">
-        <v>0.008749120042588591</v>
+        <v>0.01663166009058391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H3">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I3">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J3">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.053822</v>
       </c>
       <c r="O3">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P3">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q3">
-        <v>34.664544190274</v>
+        <v>289.3958320945633</v>
       </c>
       <c r="R3">
-        <v>311.9808977124659</v>
+        <v>2604.56248885107</v>
       </c>
       <c r="S3">
-        <v>0.1008353228903832</v>
+        <v>0.4743907087505498</v>
       </c>
       <c r="T3">
-        <v>0.1008353228903832</v>
+        <v>0.4743907087505498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H4">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I4">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J4">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O4">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P4">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q4">
-        <v>2.444192355323</v>
+        <v>20.40526125441833</v>
       </c>
       <c r="R4">
-        <v>21.997731197907</v>
+        <v>183.647351289765</v>
       </c>
       <c r="S4">
-        <v>0.007109885074569991</v>
+        <v>0.03344922516216673</v>
       </c>
       <c r="T4">
-        <v>0.007109885074569991</v>
+        <v>0.03344922516216674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I5">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J5">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N5">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O5">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P5">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q5">
-        <v>1.127099438722667</v>
+        <v>0.4554177753746667</v>
       </c>
       <c r="R5">
-        <v>10.143894948504</v>
+        <v>4.098759978372001</v>
       </c>
       <c r="S5">
-        <v>0.003278607536546162</v>
+        <v>0.0007465413709448013</v>
       </c>
       <c r="T5">
-        <v>0.003278607536546162</v>
+        <v>0.0007465413709448013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.053822</v>
       </c>
       <c r="O6">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P6">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q6">
         <v>12.99004188763467</v>
@@ -818,10 +818,10 @@
         <v>116.910376988712</v>
       </c>
       <c r="S6">
-        <v>0.03778659430539281</v>
+        <v>0.02129386291838758</v>
       </c>
       <c r="T6">
-        <v>0.03778659430539281</v>
+        <v>0.02129386291838758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I7">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J7">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O7">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P7">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q7">
         <v>0.9159261089026668</v>
@@ -880,10 +880,10 @@
         <v>8.243334980124002</v>
       </c>
       <c r="S7">
-        <v>0.002664327689641048</v>
+        <v>0.001501427414557544</v>
       </c>
       <c r="T7">
-        <v>0.002664327689641048</v>
+        <v>0.001501427414557544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>18.853631</v>
       </c>
       <c r="I8">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J8">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N8">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O8">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P8">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q8">
-        <v>21.63951474138822</v>
+        <v>8.743700267368554</v>
       </c>
       <c r="R8">
-        <v>194.755632672494</v>
+        <v>78.693302406317</v>
       </c>
       <c r="S8">
-        <v>0.06294695364121682</v>
+        <v>0.01433306809195496</v>
       </c>
       <c r="T8">
-        <v>0.06294695364121682</v>
+        <v>0.01433306809195496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>18.853631</v>
       </c>
       <c r="I9">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J9">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>119.053822</v>
       </c>
       <c r="O9">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P9">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q9">
         <v>249.3996476808535</v>
@@ -1004,10 +1004,10 @@
         <v>2244.596829127682</v>
       </c>
       <c r="S9">
-        <v>0.7254759752387764</v>
+        <v>0.4088271581838038</v>
       </c>
       <c r="T9">
-        <v>0.7254759752387762</v>
+        <v>0.4088271581838037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>18.853631</v>
       </c>
       <c r="I10">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J10">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q10">
         <v>17.58513566299322</v>
@@ -1066,10 +1066,10 @@
         <v>158.266220966939</v>
       </c>
       <c r="S10">
-        <v>0.05115321358088509</v>
+        <v>0.02882634801705095</v>
       </c>
       <c r="T10">
-        <v>0.05115321358088508</v>
+        <v>0.02882634801705095</v>
       </c>
     </row>
   </sheetData>
